--- a/medicine/Psychotrope/Pierre_Gendron_(chimiste)/Pierre_Gendron_(chimiste).xlsx
+++ b/medicine/Psychotrope/Pierre_Gendron_(chimiste)/Pierre_Gendron_(chimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Raoul Gendron, né le 1er mai 1916 à Saint-Hyacinthe et mort le 16 février 1984, est un chimiste québécois. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chargé de cours de chimie à l'Université Columbia de New York (1949-1950), Professeur adjoint (1946), professeur associé (1953-1962) de chimie à l'Université de Montréal (1952).
 Doyen de la Faculté des sciences pures et appliquées de l'Université d'Ottawa (1953-1962). Président de l'ACFAS (1960-1961). Fondateur et premier directeur du Planétarium Dow de Montréal (1962-1963). 
@@ -544,7 +558,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1964 - Prix Urgel-Archambault de l'ACFAS
 1970 - Compagnon de l'Ordre du Canada
